--- a/Results/RQ1/Result_final.xlsx
+++ b/Results/RQ1/Result_final.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qm-mos-czi/PycharmProjects/bachelor/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\LMU\Bachelor\code\Results\RQ1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B5EEF1-A883-C145-99B5-6864B8079CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37724D51-04A9-4ABE-94EC-4B1269630D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1000" windowWidth="27840" windowHeight="15440" activeTab="3" xr2:uid="{7C34DB66-8E30-DC4C-A707-0FE325E98B37}"/>
+    <workbookView xWindow="28680" yWindow="-9045" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7C34DB66-8E30-DC4C-A707-0FE325E98B37}"/>
   </bookViews>
   <sheets>
     <sheet name="keywords - final" sheetId="1" r:id="rId1"/>
-    <sheet name="LDA - raw" sheetId="2" r:id="rId2"/>
-    <sheet name="keywords - raw" sheetId="3" r:id="rId3"/>
+    <sheet name="keywords - raw" sheetId="3" r:id="rId2"/>
+    <sheet name="LDA - raw" sheetId="2" r:id="rId3"/>
     <sheet name="LDA - final" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="2" hidden="1">'keywords - raw'!$A$1:$H$27</definedName>
-    <definedName name="ExterneDaten_1" localSheetId="1" hidden="1">'LDA - raw'!$A$1:$B$11</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="1" hidden="1">'keywords - raw'!$A$1:$H$27</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="2" hidden="1">'LDA - raw'!$A$1:$B$11</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="371">
   <si>
     <t>Moral</t>
   </si>
@@ -1161,13 +1161,19 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Round 2 Clear</t>
+  </si>
+  <si>
+    <t>Clear Round 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1185,6 +1191,14 @@
     <font>
       <b/>
       <u val="double"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1243,7 +1257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1253,7 +1267,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1463,32 +1481,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="1" xr16:uid="{09961091-AEE1-2548-8F4C-CC6B02F7BA22}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="18" unboundColumnsRight="15">
-    <queryTableFields count="17">
-      <queryTableField id="1" name="Column1" tableColumnId="1"/>
-      <queryTableField id="2" name="Column2" tableColumnId="2"/>
-      <queryTableField id="3" dataBound="0" tableColumnId="3"/>
-      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
-      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
-      <queryTableField id="6" dataBound="0" tableColumnId="6"/>
-      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
-      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
-      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
-      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
-      <queryTableField id="11" dataBound="0" tableColumnId="11"/>
-      <queryTableField id="12" dataBound="0" tableColumnId="12"/>
-      <queryTableField id="13" dataBound="0" tableColumnId="13"/>
-      <queryTableField id="14" dataBound="0" tableColumnId="14"/>
-      <queryTableField id="15" dataBound="0" tableColumnId="15"/>
-      <queryTableField id="16" dataBound="0" tableColumnId="16"/>
-      <queryTableField id="17" dataBound="0" tableColumnId="17"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="2" xr16:uid="{E8F4CE3B-4EA8-AC4F-AFE3-D3BD5F8F1981}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="34" unboundColumnsRight="25">
     <queryTableFields count="33">
@@ -1530,33 +1522,33 @@
 </queryTable>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C73F612-783E-A64E-BE0D-815D4801F790}" name="Tabelle_Results_LDA__4" displayName="Tabelle_Results_LDA__4" ref="A1:Q11" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:Q11" xr:uid="{0B68C95E-237E-C348-99C5-B89C4E86EE19}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{3077213A-1D30-4141-B499-6392EAF3D8B0}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{7CEFA0D2-E550-6F46-925A-850CBC16EFA9}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{9BF19378-3A4F-E944-B370-D0970A2AEA58}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{0BFB314E-9D24-1849-8ADE-697821B9D61F}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{41732EAA-D0E1-504C-A31A-DD8A5855E456}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{BC690E22-82AB-C141-838A-EE21EF35DACE}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{972FC861-847E-C044-B3F3-257B3FCE215A}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{2D9126AF-A108-2541-B4F6-D753912458D4}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{29C76369-ABED-4647-B251-4C8F7C0DFBBD}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{3BF8086F-24E9-E144-8365-96C6BFD03AD2}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{8869EDBC-9966-724E-91E0-92B6EC8DB1E0}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{3298EBB9-1899-624B-B05B-0600E4E6EFB0}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{F7E0D6F3-15B2-FB47-823B-F211C43A3DBC}" uniqueName="13" name="Column13" queryTableFieldId="13" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{0C0D6BB7-FE74-1241-89A1-2CA1C0FDAE29}" uniqueName="14" name="Column14" queryTableFieldId="14" dataDxfId="38"/>
-    <tableColumn id="15" xr3:uid="{698B331D-D558-874C-958A-7766AB1D0D62}" uniqueName="15" name="Column15" queryTableFieldId="15" dataDxfId="37"/>
-    <tableColumn id="16" xr3:uid="{A212048C-1D4B-DB48-B82B-7BFB02F1C9A2}" uniqueName="16" name="Column16" queryTableFieldId="16" dataDxfId="36"/>
-    <tableColumn id="17" xr3:uid="{54BEEC32-8A52-F44A-8C24-7A2A631FF88E}" uniqueName="17" name="Column17" queryTableFieldId="17" dataDxfId="35"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="1" xr16:uid="{09961091-AEE1-2548-8F4C-CC6B02F7BA22}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="18" unboundColumnsRight="15">
+    <queryTableFields count="17">
+      <queryTableField id="1" name="Column1" tableColumnId="1"/>
+      <queryTableField id="2" name="Column2" tableColumnId="2"/>
+      <queryTableField id="3" dataBound="0" tableColumnId="3"/>
+      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
+      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
+      <queryTableField id="6" dataBound="0" tableColumnId="6"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
+      <queryTableField id="11" dataBound="0" tableColumnId="11"/>
+      <queryTableField id="12" dataBound="0" tableColumnId="12"/>
+      <queryTableField id="13" dataBound="0" tableColumnId="13"/>
+      <queryTableField id="14" dataBound="0" tableColumnId="14"/>
+      <queryTableField id="15" dataBound="0" tableColumnId="15"/>
+      <queryTableField id="16" dataBound="0" tableColumnId="16"/>
+      <queryTableField id="17" dataBound="0" tableColumnId="17"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BBCB216C-AEDF-A44C-9530-5130D2292FDC}" name="Tabelle_Results_topic_modelling__4" displayName="Tabelle_Results_topic_modelling__4" ref="A1:AG27" tableType="queryTable" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:AG27" xr:uid="{8DEE9FB7-B75E-6A4C-AC64-2932D32AAB15}"/>
   <tableColumns count="33">
@@ -1593,6 +1585,32 @@
     <tableColumn id="31" xr3:uid="{5B2C1394-E054-B146-A666-CE1568D34449}" uniqueName="31" name="Column31" queryTableFieldId="31" dataDxfId="2"/>
     <tableColumn id="32" xr3:uid="{78EE8207-60DD-E246-BBEB-70D8EA59E39C}" uniqueName="32" name="Column32" queryTableFieldId="32" dataDxfId="1"/>
     <tableColumn id="33" xr3:uid="{9646A4E0-7D6D-E142-93C7-738A50465071}" uniqueName="33" name="Column33" queryTableFieldId="33" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C73F612-783E-A64E-BE0D-815D4801F790}" name="Tabelle_Results_LDA__4" displayName="Tabelle_Results_LDA__4" ref="A1:Q11" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:Q11" xr:uid="{0B68C95E-237E-C348-99C5-B89C4E86EE19}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{3077213A-1D30-4141-B499-6392EAF3D8B0}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{7CEFA0D2-E550-6F46-925A-850CBC16EFA9}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{9BF19378-3A4F-E944-B370-D0970A2AEA58}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{0BFB314E-9D24-1849-8ADE-697821B9D61F}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{41732EAA-D0E1-504C-A31A-DD8A5855E456}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{BC690E22-82AB-C141-838A-EE21EF35DACE}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{972FC861-847E-C044-B3F3-257B3FCE215A}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{2D9126AF-A108-2541-B4F6-D753912458D4}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{29C76369-ABED-4647-B251-4C8F7C0DFBBD}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{3BF8086F-24E9-E144-8365-96C6BFD03AD2}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{8869EDBC-9966-724E-91E0-92B6EC8DB1E0}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{3298EBB9-1899-624B-B05B-0600E4E6EFB0}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{F7E0D6F3-15B2-FB47-823B-F211C43A3DBC}" uniqueName="13" name="Column13" queryTableFieldId="13" dataDxfId="39"/>
+    <tableColumn id="14" xr3:uid="{0C0D6BB7-FE74-1241-89A1-2CA1C0FDAE29}" uniqueName="14" name="Column14" queryTableFieldId="14" dataDxfId="38"/>
+    <tableColumn id="15" xr3:uid="{698B331D-D558-874C-958A-7766AB1D0D62}" uniqueName="15" name="Column15" queryTableFieldId="15" dataDxfId="37"/>
+    <tableColumn id="16" xr3:uid="{A212048C-1D4B-DB48-B82B-7BFB02F1C9A2}" uniqueName="16" name="Column16" queryTableFieldId="16" dataDxfId="36"/>
+    <tableColumn id="17" xr3:uid="{54BEEC32-8A52-F44A-8C24-7A2A631FF88E}" uniqueName="17" name="Column17" queryTableFieldId="17" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1895,24 +1913,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC085CD5-E2F5-C24D-B0E2-E7189BFAA7BF}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.81640625" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1920,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1934,7 +1952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1951,7 +1969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1965,7 +1983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1982,7 +2000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2005,7 +2023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -2028,7 +2046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -2042,7 +2060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -2056,7 +2074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -2073,7 +2091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -2087,7 +2105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -2107,7 +2125,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -2121,7 +2139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -2135,7 +2153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17">
         <f>SUM(B3:B15)</f>
         <v>11</v>
@@ -2145,9 +2163,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
         <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2156,37 +2179,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22263697-EE82-D841-80F8-364434878281}">
-  <sheetPr codeName="Tabelle5"/>
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7678DDE7-CDA4-CB4B-9770-DE29CA52930C}">
+  <sheetPr codeName="Tabelle3"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="I11" activeCellId="1" sqref="G11 I11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="71.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="74" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="70" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="67.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="72.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="73.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="67.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="67.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="74.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="38.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.81640625" style="5"/>
+    <col min="4" max="4" width="15.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="46.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="49.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="52" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="48.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="41.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="46.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="42.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="48.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="41.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="40.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="37.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="40.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="41.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="38.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="10.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
@@ -2238,251 +2275,1383 @@
       <c r="Q1" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>57</v>
+        <v>137</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>62</v>
+        <v>142</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>76</v>
+        <v>141</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>79</v>
+        <v>171</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="B11" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="B17" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="5">
-        <v>5</v>
+      <c r="B27" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA27" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB27" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC27" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD27" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE27" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF27" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="D29" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F29" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="D30" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F30" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="F32" s="5">
+        <f>10+11</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -2494,51 +3663,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7678DDE7-CDA4-CB4B-9770-DE29CA52930C}">
-  <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A1:AG32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22263697-EE82-D841-80F8-364434878281}">
+  <sheetPr codeName="Tabelle5"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="5"/>
-    <col min="4" max="4" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="46.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="49.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="52" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="47.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="48.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="49.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="46.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="42.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="48.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="41.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="40.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="41.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="37.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="40.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="41.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="38.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="27.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="74" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="70" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="67.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="72.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="73.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="67.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="67.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="74.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
@@ -2590,1378 +3745,251 @@
       <c r="Q1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>138</v>
+        <v>56</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>143</v>
+        <v>61</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>169</v>
+        <v>75</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="5">
         <v>5</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="X17" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y17" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z17" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA17" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="W19" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="X19" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y19" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="W23" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="X23" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y23" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="Z23" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA23" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="U25" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="V25" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="W25" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="X25" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y25" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z25" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA25" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="S27" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="U27" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="V27" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="W27" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="X27" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y27" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="Z27" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="AA27" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="AB27" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="AC27" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="AD27" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="AE27" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF27" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="D29" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="F29" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="D30" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="F30" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="F32" s="5">
-        <f>10+11</f>
-        <v>21</v>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3975,68 +4003,72 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B453730A-3B62-2842-9F68-90C379602603}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="5"/>
-    <col min="3" max="3" width="74" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="27.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="5"/>
+    <col min="3" max="3" width="96" style="5" customWidth="1"/>
+    <col min="4" max="4" width="75.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="73" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>103</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
